--- a/Excel/MTECH_cs.xlsx
+++ b/Excel/MTECH_cs.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,12 +750,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="E3:F3"/>
@@ -764,6 +758,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="mailto:arpitdhakad1990@gmail.com"/>
